--- a/Tabulados INPC/inflacion_mensual_generico.xlsx
+++ b/Tabulados INPC/inflacion_mensual_generico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\01 IIEG\py Precios\Tabulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.gonzalez\Documents\GitHub\SIE\Tabulados INPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1286,10 +1286,10 @@
     <t>Inflación mensual respecto al mes inmediato anterior por producto genérico, clasificado por objeto de gasto</t>
   </si>
   <si>
-    <t>Última actualización: enero de 2022</t>
+    <t>Periodicidad: mensual</t>
   </si>
   <si>
-    <t>Periodicidad: mensual</t>
+    <t>Última actualización: febrero de 2022</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:AS314"/>
+  <dimension ref="A8:AT314"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1824,37 +1824,37 @@
     <col min="45" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>412</v>
       </c>
@@ -1990,8 +1990,11 @@
       <c r="AS15" s="13">
         <v>44531</v>
       </c>
+      <c r="AT15" s="13">
+        <v>44562</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -2127,8 +2130,11 @@
       <c r="AS16" s="10">
         <v>3.8627833658609889E-2</v>
       </c>
+      <c r="AT16" s="10">
+        <v>2.586618099822191E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
@@ -2264,8 +2270,11 @@
       <c r="AS17" s="10">
         <v>3.466958471228776E-2</v>
       </c>
+      <c r="AT17" s="10">
+        <v>1.8873440469127534E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
@@ -2401,8 +2410,11 @@
       <c r="AS18" s="10">
         <v>1.4686215468933117E-3</v>
       </c>
+      <c r="AT18" s="10">
+        <v>9.2575904048761704E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
@@ -2538,8 +2550,11 @@
       <c r="AS19" s="10">
         <v>2.7200053349782927E-2</v>
       </c>
+      <c r="AT19" s="10">
+        <v>1.6400759579958679E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>0</v>
       </c>
@@ -2675,8 +2690,11 @@
       <c r="AS20" s="10">
         <v>2.8569273416432228E-3</v>
       </c>
+      <c r="AT20" s="10">
+        <v>3.2530720846926098E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
@@ -2812,8 +2830,11 @@
       <c r="AS21" s="10">
         <v>9.6587036390538561E-3</v>
       </c>
+      <c r="AT21" s="10">
+        <v>-9.055883030921752E-4</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>0</v>
       </c>
@@ -2949,8 +2970,11 @@
       <c r="AS22" s="10">
         <v>2.9203695778052818E-3</v>
       </c>
+      <c r="AT22" s="10">
+        <v>2.4265548777936852E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>0</v>
       </c>
@@ -3086,8 +3110,11 @@
       <c r="AS23" s="10">
         <v>6.2776289625479098E-3</v>
       </c>
+      <c r="AT23" s="10">
+        <v>4.4771610079532342E-2</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>0</v>
       </c>
@@ -3223,8 +3250,11 @@
       <c r="AS24" s="10">
         <v>-1.2523272160796406E-2</v>
       </c>
+      <c r="AT24" s="10">
+        <v>3.689196364671754E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
@@ -3360,8 +3390,11 @@
       <c r="AS25" s="10">
         <v>5.7256825001829714E-2</v>
       </c>
+      <c r="AT25" s="10">
+        <v>9.2673741632226303E-2</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
@@ -3497,8 +3530,11 @@
       <c r="AS26" s="10">
         <v>1.6230164661825697E-2</v>
       </c>
+      <c r="AT26" s="10">
+        <v>2.9069767441860517E-2</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -3634,8 +3670,11 @@
       <c r="AS27" s="10">
         <v>9.7458513737544994E-3</v>
       </c>
+      <c r="AT27" s="10">
+        <v>8.6077038949861073E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>0</v>
       </c>
@@ -3771,8 +3810,11 @@
       <c r="AS28" s="10">
         <v>8.3069589340833971E-3</v>
       </c>
+      <c r="AT28" s="10">
+        <v>-6.8744768577363446E-3</v>
+      </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
@@ -3908,8 +3950,11 @@
       <c r="AS29" s="10">
         <v>9.0863473192572819E-3</v>
       </c>
+      <c r="AT29" s="10">
+        <v>1.1498561723483736E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
@@ -4045,8 +4090,11 @@
       <c r="AS30" s="10">
         <v>2.6075202162803013E-3</v>
       </c>
+      <c r="AT30" s="10">
+        <v>3.0825933992293386E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
@@ -4182,8 +4230,11 @@
       <c r="AS31" s="10">
         <v>-1.9510744845910866E-3</v>
       </c>
+      <c r="AT31" s="10">
+        <v>9.523100267168072E-3</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>0</v>
       </c>
@@ -4319,8 +4370,11 @@
       <c r="AS32" s="10">
         <v>6.4643986221866179E-3</v>
       </c>
+      <c r="AT32" s="10">
+        <v>8.5560243788089796E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -4456,8 +4510,11 @@
       <c r="AS33" s="10">
         <v>-6.397166452825509E-3</v>
       </c>
+      <c r="AT33" s="10">
+        <v>0.10452321626684613</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>0</v>
       </c>
@@ -4593,8 +4650,11 @@
       <c r="AS34" s="10">
         <v>4.1969143112118079E-2</v>
       </c>
+      <c r="AT34" s="10">
+        <v>1.0187022869331042E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
@@ -4730,8 +4790,11 @@
       <c r="AS35" s="10">
         <v>7.779581375480582E-2</v>
       </c>
+      <c r="AT35" s="10">
+        <v>-1.4902184596848889E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -4867,8 +4930,11 @@
       <c r="AS36" s="10">
         <v>0.30769230769230771</v>
       </c>
+      <c r="AT36" s="10">
+        <v>0.79656150372612688</v>
+      </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
@@ -5004,8 +5070,11 @@
       <c r="AS37" s="10">
         <v>4.5904960901636649E-2</v>
       </c>
+      <c r="AT37" s="10">
+        <v>2.5562248388171005E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -5141,8 +5210,11 @@
       <c r="AS38" s="10">
         <v>-6.3972883104046696E-2</v>
       </c>
+      <c r="AT38" s="10">
+        <v>4.5595932234516523E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
@@ -5278,8 +5350,11 @@
       <c r="AS39" s="10">
         <v>-5.0597976080956841E-2</v>
       </c>
+      <c r="AT39" s="10">
+        <v>-4.6961517165005517E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>0</v>
       </c>
@@ -5415,8 +5490,11 @@
       <c r="AS40" s="10">
         <v>9.9700188390180244E-2</v>
       </c>
+      <c r="AT40" s="10">
+        <v>-3.8474870017331186E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
@@ -5552,8 +5630,11 @@
       <c r="AS41" s="10">
         <v>4.5246546009209965E-3</v>
       </c>
+      <c r="AT41" s="10">
+        <v>-9.9261941437133627E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -5689,8 +5770,11 @@
       <c r="AS42" s="10">
         <v>-3.6209477932561684E-3</v>
       </c>
+      <c r="AT42" s="10">
+        <v>-2.0824656393169105E-3</v>
+      </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
@@ -5826,8 +5910,11 @@
       <c r="AS43" s="10">
         <v>-0.10783878419316228</v>
       </c>
+      <c r="AT43" s="10">
+        <v>-0.11350922286059872</v>
+      </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>0</v>
       </c>
@@ -5963,8 +6050,11 @@
       <c r="AS44" s="10">
         <v>4.9908634079488312E-2</v>
       </c>
+      <c r="AT44" s="10">
+        <v>0.10858261720874562</v>
+      </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
@@ -6100,8 +6190,11 @@
       <c r="AS45" s="10">
         <v>5.8870876544112605E-3</v>
       </c>
+      <c r="AT45" s="10">
+        <v>-1.1407673892628978E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
@@ -6237,8 +6330,11 @@
       <c r="AS46" s="10">
         <v>0.15819600468484518</v>
       </c>
+      <c r="AT46" s="10">
+        <v>0.18294141943570086</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -6374,8 +6470,11 @@
       <c r="AS47" s="10">
         <v>7.3882960009381549E-3</v>
       </c>
+      <c r="AT47" s="10">
+        <v>-1.1233993015133836E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>0</v>
       </c>
@@ -6511,8 +6610,11 @@
       <c r="AS48" s="10">
         <v>4.0979940969370743E-2</v>
       </c>
+      <c r="AT48" s="10">
+        <v>2.2354659563998514E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
@@ -6648,8 +6750,11 @@
       <c r="AS49" s="10">
         <v>-9.8411384775920485E-3</v>
       </c>
+      <c r="AT49" s="10">
+        <v>-4.4607166218475491E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -6785,8 +6890,11 @@
       <c r="AS50" s="10">
         <v>1.8447990486750498E-2</v>
       </c>
+      <c r="AT50" s="10">
+        <v>6.9268030989160234E-3</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
@@ -6922,8 +7030,11 @@
       <c r="AS51" s="10">
         <v>9.1948191949775548E-4</v>
       </c>
+      <c r="AT51" s="10">
+        <v>-1.1087001282924502E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>0</v>
       </c>
@@ -7059,8 +7170,11 @@
       <c r="AS52" s="10">
         <v>-8.8866003355314582E-4</v>
       </c>
+      <c r="AT52" s="10">
+        <v>2.3217150599755598E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
@@ -7196,8 +7310,11 @@
       <c r="AS53" s="10">
         <v>1.8564830277209898E-2</v>
       </c>
+      <c r="AT53" s="10">
+        <v>4.4762392232761128E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -7333,8 +7450,11 @@
       <c r="AS54" s="10">
         <v>-8.2882176657439466E-3</v>
       </c>
+      <c r="AT54" s="10">
+        <v>-1.8567617416507476E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>0</v>
       </c>
@@ -7470,8 +7590,11 @@
       <c r="AS55" s="10">
         <v>8.4646533639067822E-3</v>
       </c>
+      <c r="AT55" s="10">
+        <v>0.15435846576844625</v>
+      </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>0</v>
       </c>
@@ -7607,8 +7730,11 @@
       <c r="AS56" s="10">
         <v>4.8773078433939965E-2</v>
       </c>
+      <c r="AT56" s="10">
+        <v>6.774472250383301E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>0</v>
       </c>
@@ -7744,8 +7870,11 @@
       <c r="AS57" s="10">
         <v>4.5533229244450579E-2</v>
       </c>
+      <c r="AT57" s="10">
+        <v>-1.9705552940412541E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>0</v>
       </c>
@@ -7881,8 +8010,11 @@
       <c r="AS58" s="10">
         <v>0.30206257945769521</v>
       </c>
+      <c r="AT58" s="10">
+        <v>4.1775964247545705E-3</v>
+      </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -8018,8 +8150,11 @@
       <c r="AS59" s="10">
         <v>-9.6877410168687117E-2</v>
       </c>
+      <c r="AT59" s="10">
+        <v>-0.2207093776413348</v>
+      </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>0</v>
       </c>
@@ -8155,8 +8290,11 @@
       <c r="AS60" s="10">
         <v>5.5740080489539157E-3</v>
       </c>
+      <c r="AT60" s="10">
+        <v>9.8313524619401571E-2</v>
+      </c>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>0</v>
       </c>
@@ -8292,8 +8430,11 @@
       <c r="AS61" s="10">
         <v>-4.6004442843419868E-2</v>
       </c>
+      <c r="AT61" s="10">
+        <v>-0.3587008396398097</v>
+      </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>0</v>
       </c>
@@ -8429,8 +8570,11 @@
       <c r="AS62" s="10">
         <v>2.1036952866476666E-2</v>
       </c>
+      <c r="AT62" s="10">
+        <v>-3.9906156240835489E-2</v>
+      </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>0</v>
       </c>
@@ -8566,8 +8710,11 @@
       <c r="AS63" s="10">
         <v>5.6196934048429847E-2</v>
       </c>
+      <c r="AT63" s="10">
+        <v>-2.3763568063424834E-2</v>
+      </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>0</v>
       </c>
@@ -8703,8 +8850,11 @@
       <c r="AS64" s="10">
         <v>1.3122889593778719E-2</v>
       </c>
+      <c r="AT64" s="10">
+        <v>3.7432142406264024E-3</v>
+      </c>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>0</v>
       </c>
@@ -8840,8 +8990,11 @@
       <c r="AS65" s="10">
         <v>-1.2799761775540652E-2</v>
       </c>
+      <c r="AT65" s="10">
+        <v>-0.21307567309844211</v>
+      </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>0</v>
       </c>
@@ -8977,8 +9130,11 @@
       <c r="AS66" s="10">
         <v>6.7627168479857946E-3</v>
       </c>
+      <c r="AT66" s="10">
+        <v>0.13768691588785043</v>
+      </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>0</v>
       </c>
@@ -9114,8 +9270,11 @@
       <c r="AS67" s="10">
         <v>1.0891398116212203E-2</v>
       </c>
+      <c r="AT67" s="10">
+        <v>-7.9669416253700942E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>0</v>
       </c>
@@ -9251,8 +9410,11 @@
       <c r="AS68" s="10">
         <v>-4.4592350979271167E-3</v>
       </c>
+      <c r="AT68" s="10">
+        <v>-0.24142714828616751</v>
+      </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>0</v>
       </c>
@@ -9388,8 +9550,11 @@
       <c r="AS69" s="10">
         <v>1.9306819877630277E-2</v>
       </c>
+      <c r="AT69" s="10">
+        <v>2.3488827480189434E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>0</v>
       </c>
@@ -9525,8 +9690,11 @@
       <c r="AS70" s="10">
         <v>1.2078319742503174E-2</v>
       </c>
+      <c r="AT70" s="10">
+        <v>6.2444764122646657E-3</v>
+      </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>0</v>
       </c>
@@ -9662,8 +9830,11 @@
       <c r="AS71" s="10">
         <v>5.3302712626079884E-3</v>
       </c>
+      <c r="AT71" s="10">
+        <v>-2.0397227725564626E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>0</v>
       </c>
@@ -9799,8 +9970,11 @@
       <c r="AS72" s="10">
         <v>2.0709651885120417E-2</v>
       </c>
+      <c r="AT72" s="10">
+        <v>1.1244763261487156E-2</v>
+      </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>0</v>
       </c>
@@ -9936,8 +10110,11 @@
       <c r="AS73" s="10">
         <v>7.9314672836423572E-3</v>
       </c>
+      <c r="AT73" s="10">
+        <v>6.4887815343530608E-3</v>
+      </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>0</v>
       </c>
@@ -10073,8 +10250,11 @@
       <c r="AS74" s="10">
         <v>3.8112801598280122E-3</v>
       </c>
+      <c r="AT74" s="10">
+        <v>9.6298110781103397E-3</v>
+      </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>0</v>
       </c>
@@ -10210,8 +10390,11 @@
       <c r="AS75" s="10">
         <v>-1.6565172120026617E-3</v>
       </c>
+      <c r="AT75" s="10">
+        <v>1.415116701695629E-2</v>
+      </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>0</v>
       </c>
@@ -10347,8 +10530,11 @@
       <c r="AS76" s="10">
         <v>4.4598529090020822E-3</v>
       </c>
+      <c r="AT76" s="10">
+        <v>3.007506199316401E-2</v>
+      </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>0</v>
       </c>
@@ -10484,8 +10670,11 @@
       <c r="AS77" s="10">
         <v>5.2046743868077172E-3</v>
       </c>
+      <c r="AT77" s="10">
+        <v>5.1702111670550721E-3</v>
+      </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>0</v>
       </c>
@@ -10621,8 +10810,11 @@
       <c r="AS78" s="10">
         <v>7.4300451947253432E-3</v>
       </c>
+      <c r="AT78" s="10">
+        <v>2.8088535062531506E-4</v>
+      </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>0</v>
       </c>
@@ -10758,8 +10950,11 @@
       <c r="AS79" s="10">
         <v>-5.7085487176509186E-3</v>
       </c>
+      <c r="AT79" s="10">
+        <v>7.1933440704980978E-3</v>
+      </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>0</v>
       </c>
@@ -10895,8 +11090,11 @@
       <c r="AS80" s="10">
         <v>6.0968339387772463E-3</v>
       </c>
+      <c r="AT80" s="10">
+        <v>5.2145058070633965E-3</v>
+      </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>0</v>
       </c>
@@ -11032,8 +11230,11 @@
       <c r="AS81" s="10">
         <v>-1.0090668652224966E-2</v>
       </c>
+      <c r="AT81" s="10">
+        <v>1.6688866254015444E-3</v>
+      </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>0</v>
       </c>
@@ -11169,8 +11370,11 @@
       <c r="AS82" s="10">
         <v>-1.1929514119295104E-2</v>
       </c>
+      <c r="AT82" s="10">
+        <v>1.1222875563382306E-2</v>
+      </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>0</v>
       </c>
@@ -11306,8 +11510,11 @@
       <c r="AS83" s="10">
         <v>-6.8278157627699176E-4</v>
       </c>
+      <c r="AT83" s="10">
+        <v>6.6426897199622914E-4</v>
+      </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>0</v>
       </c>
@@ -11443,8 +11650,11 @@
       <c r="AS84" s="10">
         <v>1.1288504567554369E-2</v>
       </c>
+      <c r="AT84" s="10">
+        <v>7.8520095821135172E-3</v>
+      </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>0</v>
       </c>
@@ -11580,8 +11790,11 @@
       <c r="AS85" s="10">
         <v>1.7656552355411304E-2</v>
       </c>
+      <c r="AT85" s="10">
+        <v>2.219469473418445E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>0</v>
       </c>
@@ -11717,8 +11930,11 @@
       <c r="AS86" s="10">
         <v>-5.1434781526615847E-4</v>
       </c>
+      <c r="AT86" s="10">
+        <v>1.4683056798280303E-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -11854,8 +12070,11 @@
       <c r="AS87" s="10">
         <v>1.9143203768767769E-3</v>
       </c>
+      <c r="AT87" s="10">
+        <v>1.9853594483452586E-2</v>
+      </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>0</v>
       </c>
@@ -11991,8 +12210,11 @@
       <c r="AS88" s="10">
         <v>3.2310377187638961E-2</v>
       </c>
+      <c r="AT88" s="10">
+        <v>3.1195425946747513E-2</v>
+      </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>0</v>
       </c>
@@ -12128,8 +12350,11 @@
       <c r="AS89" s="10">
         <v>0</v>
       </c>
+      <c r="AT89" s="10">
+        <v>7.4965331593115359E-3</v>
+      </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>0</v>
       </c>
@@ -12265,8 +12490,11 @@
       <c r="AS90" s="10">
         <v>2.2081771560309438E-2</v>
       </c>
+      <c r="AT90" s="10">
+        <v>-4.2419174172561469E-2</v>
+      </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>0</v>
       </c>
@@ -12402,8 +12630,11 @@
       <c r="AS91" s="10">
         <v>9.9245289039937568E-3</v>
       </c>
+      <c r="AT91" s="10">
+        <v>2.15419859388577E-2</v>
+      </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>0</v>
       </c>
@@ -12539,8 +12770,11 @@
       <c r="AS92" s="10">
         <v>4.4779960538732233E-3</v>
       </c>
+      <c r="AT92" s="10">
+        <v>1.3058108154271775E-2</v>
+      </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>0</v>
       </c>
@@ -12676,8 +12910,11 @@
       <c r="AS93" s="10">
         <v>7.7210440719450713E-3</v>
       </c>
+      <c r="AT93" s="10">
+        <v>2.532656892901386E-3</v>
+      </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>0</v>
       </c>
@@ -12813,8 +13050,11 @@
       <c r="AS94" s="10">
         <v>-1.3436909510822215E-4</v>
       </c>
+      <c r="AT94" s="10">
+        <v>2.6289486725068478E-3</v>
+      </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>0</v>
       </c>
@@ -12950,8 +13190,11 @@
       <c r="AS95" s="10">
         <v>4.4716403859732523E-3</v>
       </c>
+      <c r="AT95" s="10">
+        <v>1.2148981221149491E-4</v>
+      </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>0</v>
       </c>
@@ -13087,8 +13330,11 @@
       <c r="AS96" s="10">
         <v>9.1436342546298288E-3</v>
       </c>
+      <c r="AT96" s="10">
+        <v>1.0939531344136277E-3</v>
+      </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>0</v>
       </c>
@@ -13224,8 +13470,11 @@
       <c r="AS97" s="10">
         <v>2.0461599681655285E-2</v>
       </c>
+      <c r="AT97" s="10">
+        <v>6.7071696523968161E-3</v>
+      </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>0</v>
       </c>
@@ -13361,8 +13610,11 @@
       <c r="AS98" s="10">
         <v>7.204572643892071E-3</v>
       </c>
+      <c r="AT98" s="10">
+        <v>2.0781643175139308E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>0</v>
       </c>
@@ -13498,8 +13750,11 @@
       <c r="AS99" s="10">
         <v>1.0018421980950931E-2</v>
       </c>
+      <c r="AT99" s="10">
+        <v>-9.8181507726456951E-3</v>
+      </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>0</v>
       </c>
@@ -13635,8 +13890,11 @@
       <c r="AS100" s="10">
         <v>-3.1218838689883732E-3</v>
       </c>
+      <c r="AT100" s="10">
+        <v>9.1025907373636361E-3</v>
+      </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>0</v>
       </c>
@@ -13772,8 +14030,11 @@
       <c r="AS101" s="10">
         <v>1.1095446214577587E-2</v>
       </c>
+      <c r="AT101" s="10">
+        <v>3.4643111117308223E-2</v>
+      </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>0</v>
       </c>
@@ -13909,8 +14170,11 @@
       <c r="AS102" s="10">
         <v>3.237120996500864E-2</v>
       </c>
+      <c r="AT102" s="10">
+        <v>2.2882627204540817E-2</v>
+      </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>0</v>
       </c>
@@ -14046,8 +14310,11 @@
       <c r="AS103" s="10">
         <v>6.6105075316223116E-2</v>
       </c>
+      <c r="AT103" s="10">
+        <v>1.7534358974359066E-2</v>
+      </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>0</v>
       </c>
@@ -14183,8 +14450,11 @@
       <c r="AS104" s="10">
         <v>2.8214265930535332E-2</v>
       </c>
+      <c r="AT104" s="10">
+        <v>1.610846727125792E-2</v>
+      </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>0</v>
       </c>
@@ -14320,8 +14590,11 @@
       <c r="AS105" s="10">
         <v>1.4465423630263485E-2</v>
       </c>
+      <c r="AT105" s="10">
+        <v>8.9071334520949286E-3</v>
+      </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>0</v>
       </c>
@@ -14457,8 +14730,11 @@
       <c r="AS106" s="10">
         <v>5.2306978132201642E-3</v>
       </c>
+      <c r="AT106" s="10">
+        <v>7.4877334762710746E-3</v>
+      </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>0</v>
       </c>
@@ -14594,8 +14870,11 @@
       <c r="AS107" s="10">
         <v>4.9937333542221518E-2</v>
       </c>
+      <c r="AT107" s="10">
+        <v>4.8345581377997604E-3</v>
+      </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>0</v>
       </c>
@@ -14731,8 +15010,11 @@
       <c r="AS108" s="10">
         <v>6.5588725659817548E-3</v>
       </c>
+      <c r="AT108" s="10">
+        <v>9.4773029142902754E-3</v>
+      </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>0</v>
       </c>
@@ -14868,8 +15150,11 @@
       <c r="AS109" s="10">
         <v>8.8462004116389714E-3</v>
       </c>
+      <c r="AT109" s="10">
+        <v>6.7604867550463688E-3</v>
+      </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>0</v>
       </c>
@@ -15005,8 +15290,11 @@
       <c r="AS110" s="10">
         <v>3.3020913245054295E-3</v>
       </c>
+      <c r="AT110" s="10">
+        <v>3.4158909574468765E-3</v>
+      </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>0</v>
       </c>
@@ -15142,8 +15430,11 @@
       <c r="AS111" s="10">
         <v>8.8924498254152606E-3</v>
       </c>
+      <c r="AT111" s="10">
+        <v>1.5128044237028959E-2</v>
+      </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>0</v>
       </c>
@@ -15279,8 +15570,11 @@
       <c r="AS112" s="10">
         <v>1.0211978331458482E-2</v>
       </c>
+      <c r="AT112" s="10">
+        <v>2.4118840968860189E-2</v>
+      </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>0</v>
       </c>
@@ -15416,8 +15710,11 @@
       <c r="AS113" s="10">
         <v>-1.2601966115875274E-2</v>
       </c>
+      <c r="AT113" s="10">
+        <v>1.4651626683612751E-3</v>
+      </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>0</v>
       </c>
@@ -15553,8 +15850,11 @@
       <c r="AS114" s="10">
         <v>6.72188571300536E-3</v>
       </c>
+      <c r="AT114" s="10">
+        <v>1.291629263081373E-2</v>
+      </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>0</v>
       </c>
@@ -15690,8 +15990,11 @@
       <c r="AS115" s="10">
         <v>9.9187899076311759E-3</v>
       </c>
+      <c r="AT115" s="10">
+        <v>1.1202504450310125E-2</v>
+      </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>0</v>
       </c>
@@ -15827,8 +16130,11 @@
       <c r="AS116" s="10">
         <v>3.4613995143957244E-3</v>
       </c>
+      <c r="AT116" s="10">
+        <v>7.1752107770495233E-3</v>
+      </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>0</v>
       </c>
@@ -15964,8 +16270,11 @@
       <c r="AS117" s="10">
         <v>6.1436012164854947E-3</v>
       </c>
+      <c r="AT117" s="10">
+        <v>5.9862243878711974E-2</v>
+      </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>0</v>
       </c>
@@ -16101,8 +16410,11 @@
       <c r="AS118" s="10">
         <v>-1.3638067998500203E-2</v>
       </c>
+      <c r="AT118" s="10">
+        <v>5.5271184193077971E-2</v>
+      </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>0</v>
       </c>
@@ -16238,8 +16550,11 @@
       <c r="AS119" s="10">
         <v>2.8722516879395865E-3</v>
       </c>
+      <c r="AT119" s="10">
+        <v>2.9118900214213372E-2</v>
+      </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>0</v>
       </c>
@@ -16375,8 +16690,11 @@
       <c r="AS120" s="10">
         <v>3.4121560441864318E-3</v>
       </c>
+      <c r="AT120" s="10">
+        <v>1.174045613001895E-2</v>
+      </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>0</v>
       </c>
@@ -16512,8 +16830,11 @@
       <c r="AS121" s="10">
         <v>1.4576057005458276E-2</v>
       </c>
+      <c r="AT121" s="10">
+        <v>1.7212299442113999E-2</v>
+      </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>0</v>
       </c>
@@ -16649,8 +16970,11 @@
       <c r="AS122" s="10">
         <v>1.9013174017017409E-3</v>
       </c>
+      <c r="AT122" s="10">
+        <v>1.2035693802503244E-2</v>
+      </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>0</v>
       </c>
@@ -16786,8 +17110,11 @@
       <c r="AS123" s="10">
         <v>1.0460433410624415E-2</v>
       </c>
+      <c r="AT123" s="10">
+        <v>-3.1919115236633822E-4</v>
+      </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>0</v>
       </c>
@@ -16923,8 +17250,11 @@
       <c r="AS124" s="10">
         <v>-1.3036871870026889E-2</v>
       </c>
+      <c r="AT124" s="10">
+        <v>1.1687755641186737E-2</v>
+      </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>0</v>
       </c>
@@ -17060,8 +17390,11 @@
       <c r="AS125" s="10">
         <v>-3.2140658385543253E-3</v>
       </c>
+      <c r="AT125" s="10">
+        <v>1.4360064306929265E-2</v>
+      </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>0</v>
       </c>
@@ -17197,8 +17530,11 @@
       <c r="AS126" s="10">
         <v>2.5015373456741319E-2</v>
       </c>
+      <c r="AT126" s="10">
+        <v>1.2029381225243441E-2</v>
+      </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>0</v>
       </c>
@@ -17334,8 +17670,11 @@
       <c r="AS127" s="10">
         <v>2.7455810501072708E-2</v>
       </c>
+      <c r="AT127" s="10">
+        <v>3.9662440557941769E-2</v>
+      </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>0</v>
       </c>
@@ -17471,8 +17810,11 @@
       <c r="AS128" s="10">
         <v>5.9514918039231812E-3</v>
       </c>
+      <c r="AT128" s="10">
+        <v>5.0073465049393695E-2</v>
+      </c>
     </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>147</v>
       </c>
@@ -17608,8 +17950,11 @@
       <c r="AS129" s="10">
         <v>2.7441963954608628E-3</v>
       </c>
+      <c r="AT129" s="10">
+        <v>5.0573224852070719E-3</v>
+      </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>147</v>
       </c>
@@ -17745,8 +18090,11 @@
       <c r="AS130" s="10">
         <v>0</v>
       </c>
+      <c r="AT130" s="10">
+        <v>3.5485947221626235E-2</v>
+      </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>147</v>
       </c>
@@ -17882,8 +18230,11 @@
       <c r="AS131" s="10">
         <v>3.4777606359333024E-3</v>
       </c>
+      <c r="AT131" s="10">
+        <v>1.5773747481064637E-2</v>
+      </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>147</v>
       </c>
@@ -18019,8 +18370,11 @@
       <c r="AS132" s="10">
         <v>0</v>
       </c>
+      <c r="AT132" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>147</v>
       </c>
@@ -18156,8 +18510,11 @@
       <c r="AS133" s="10">
         <v>0</v>
       </c>
+      <c r="AT133" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>147</v>
       </c>
@@ -18293,8 +18650,11 @@
       <c r="AS134" s="10">
         <v>0</v>
       </c>
+      <c r="AT134" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>147</v>
       </c>
@@ -18430,8 +18790,11 @@
       <c r="AS135" s="10">
         <v>0</v>
       </c>
+      <c r="AT135" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>147</v>
       </c>
@@ -18567,8 +18930,11 @@
       <c r="AS136" s="10">
         <v>0</v>
       </c>
+      <c r="AT136" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>147</v>
       </c>
@@ -18704,8 +19070,11 @@
       <c r="AS137" s="10">
         <v>0</v>
       </c>
+      <c r="AT137" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>147</v>
       </c>
@@ -18841,8 +19210,11 @@
       <c r="AS138" s="10">
         <v>0</v>
       </c>
+      <c r="AT138" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>147</v>
       </c>
@@ -18978,8 +19350,11 @@
       <c r="AS139" s="10">
         <v>0</v>
       </c>
+      <c r="AT139" s="10">
+        <v>2.9127568284088579E-3</v>
+      </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>147</v>
       </c>
@@ -19115,8 +19490,11 @@
       <c r="AS140" s="10">
         <v>4.311508606142489E-3</v>
       </c>
+      <c r="AT140" s="10">
+        <v>2.2036276264166377E-2</v>
+      </c>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>147</v>
       </c>
@@ -19252,8 +19630,11 @@
       <c r="AS141" s="10">
         <v>-6.6271996228569607E-3</v>
       </c>
+      <c r="AT141" s="10">
+        <v>-3.542875917205135E-2</v>
+      </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>147</v>
       </c>
@@ -19389,8 +19770,11 @@
       <c r="AS142" s="10">
         <v>3.476236187986359E-2</v>
       </c>
+      <c r="AT142" s="10">
+        <v>6.6616663047984748E-3</v>
+      </c>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>147</v>
       </c>
@@ -19526,8 +19910,11 @@
       <c r="AS143" s="10">
         <v>-2.42944888870128E-2</v>
       </c>
+      <c r="AT143" s="10">
+        <v>2.9518020161813707E-2</v>
+      </c>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>147</v>
       </c>
@@ -19663,8 +20050,11 @@
       <c r="AS144" s="10">
         <v>-4.5375013440466017E-2</v>
       </c>
+      <c r="AT144" s="10">
+        <v>3.8541485342152848E-2</v>
+      </c>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>147</v>
       </c>
@@ -19800,8 +20190,11 @@
       <c r="AS145" s="10">
         <v>1.2792910855252693E-2</v>
       </c>
+      <c r="AT145" s="10">
+        <v>1.6677449500395403E-2</v>
+      </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>147</v>
       </c>
@@ -19937,8 +20330,11 @@
       <c r="AS146" s="10">
         <v>8.9173133668707383E-3</v>
       </c>
+      <c r="AT146" s="10">
+        <v>0.14118404947497254</v>
+      </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>147</v>
       </c>
@@ -20074,8 +20470,11 @@
       <c r="AS147" s="10">
         <v>5.4361967720384374E-3</v>
       </c>
+      <c r="AT147" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>147</v>
       </c>
@@ -20211,8 +20610,11 @@
       <c r="AS148" s="10">
         <v>0</v>
       </c>
+      <c r="AT148" s="10">
+        <v>2.9756352374912254E-3</v>
+      </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>147</v>
       </c>
@@ -20348,8 +20750,11 @@
       <c r="AS149" s="10">
         <v>7.9473301153616394E-3</v>
       </c>
+      <c r="AT149" s="10">
+        <v>6.7974138288777741E-3</v>
+      </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>147</v>
       </c>
@@ -20485,8 +20890,11 @@
       <c r="AS150" s="10">
         <v>-7.2923366150496882E-3</v>
       </c>
+      <c r="AT150" s="10">
+        <v>-5.1331632246232051E-3</v>
+      </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>147</v>
       </c>
@@ -20622,8 +21030,11 @@
       <c r="AS151" s="10">
         <v>9.6788280598673948E-2</v>
       </c>
+      <c r="AT151" s="10">
+        <v>-0.15855865638686784</v>
+      </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>147</v>
       </c>
@@ -20759,8 +21170,11 @@
       <c r="AS152" s="10">
         <v>1.7266200243909013E-2</v>
       </c>
+      <c r="AT152" s="10">
+        <v>7.2020912204795451E-3</v>
+      </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>147</v>
       </c>
@@ -20896,8 +21310,11 @@
       <c r="AS153" s="10">
         <v>4.1103903473926007E-2</v>
       </c>
+      <c r="AT153" s="10">
+        <v>-4.8236014323211451E-2</v>
+      </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>147</v>
       </c>
@@ -21033,8 +21450,11 @@
       <c r="AS154" s="10">
         <v>0</v>
       </c>
+      <c r="AT154" s="10">
+        <v>6.5015882451291418E-4</v>
+      </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>147</v>
       </c>
@@ -21170,8 +21590,11 @@
       <c r="AS155" s="10">
         <v>1.2802585940763223E-3</v>
       </c>
+      <c r="AT155" s="10">
+        <v>2.523690773067333E-2</v>
+      </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>147</v>
       </c>
@@ -21307,8 +21730,11 @@
       <c r="AS156" s="10">
         <v>-8.2549968527823037E-4</v>
       </c>
+      <c r="AT156" s="10">
+        <v>-9.6043622393660044E-4</v>
+      </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>147</v>
       </c>
@@ -21444,8 +21870,11 @@
       <c r="AS157" s="10">
         <v>0</v>
       </c>
+      <c r="AT157" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>147</v>
       </c>
@@ -21581,8 +22010,11 @@
       <c r="AS158" s="10">
         <v>0</v>
       </c>
+      <c r="AT158" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>147</v>
       </c>
@@ -21718,8 +22150,11 @@
       <c r="AS159" s="10">
         <v>0</v>
       </c>
+      <c r="AT159" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>190</v>
       </c>
@@ -21855,8 +22290,11 @@
       <c r="AS160" s="10">
         <v>1.2632164718975991E-2</v>
       </c>
+      <c r="AT160" s="10">
+        <v>6.0849904615360328E-2</v>
+      </c>
     </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>190</v>
       </c>
@@ -21992,8 +22430,11 @@
       <c r="AS161" s="10">
         <v>3.4311817604522066E-3</v>
       </c>
+      <c r="AT161" s="10">
+        <v>2.8478396227378244E-3</v>
+      </c>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>190</v>
       </c>
@@ -22129,8 +22570,11 @@
       <c r="AS162" s="10">
         <v>2.8738845062840523E-2</v>
       </c>
+      <c r="AT162" s="10">
+        <v>2.413203180034218E-2</v>
+      </c>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>190</v>
       </c>
@@ -22266,8 +22710,11 @@
       <c r="AS163" s="10">
         <v>-7.2815357948406989E-3</v>
       </c>
+      <c r="AT163" s="10">
+        <v>-5.0336428524462296E-3</v>
+      </c>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>190</v>
       </c>
@@ -22403,8 +22850,11 @@
       <c r="AS164" s="10">
         <v>6.3299013966218176E-3</v>
       </c>
+      <c r="AT164" s="10">
+        <v>1.1359245807895935E-3</v>
+      </c>
     </row>
-    <row r="165" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>190</v>
       </c>
@@ -22540,8 +22990,11 @@
       <c r="AS165" s="10">
         <v>2.5115444967495959E-2</v>
       </c>
+      <c r="AT165" s="10">
+        <v>9.0705526301979589E-3</v>
+      </c>
     </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>190</v>
       </c>
@@ -22677,8 +23130,11 @@
       <c r="AS166" s="10">
         <v>-7.3770074787593565E-4</v>
       </c>
+      <c r="AT166" s="10">
+        <v>-4.9725491527149446E-3</v>
+      </c>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>190</v>
       </c>
@@ -22814,8 +23270,11 @@
       <c r="AS167" s="10">
         <v>5.8924954383379191E-3</v>
       </c>
+      <c r="AT167" s="10">
+        <v>4.8544658756178416E-2</v>
+      </c>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>190</v>
       </c>
@@ -22951,8 +23410,11 @@
       <c r="AS168" s="10">
         <v>1.2405106814212807E-2</v>
       </c>
+      <c r="AT168" s="10">
+        <v>6.7655733309501809E-3</v>
+      </c>
     </row>
-    <row r="169" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>190</v>
       </c>
@@ -23088,8 +23550,11 @@
       <c r="AS169" s="10">
         <v>8.6223517062617994E-3</v>
       </c>
+      <c r="AT169" s="10">
+        <v>-5.7504221223995677E-2</v>
+      </c>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>190</v>
       </c>
@@ -23225,8 +23690,11 @@
       <c r="AS170" s="10">
         <v>1.5679327675702348E-2</v>
       </c>
+      <c r="AT170" s="10">
+        <v>1.0691716758738812E-2</v>
+      </c>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>190</v>
       </c>
@@ -23362,8 +23830,11 @@
       <c r="AS171" s="10">
         <v>1.5784869957388148E-2</v>
       </c>
+      <c r="AT171" s="10">
+        <v>2.7413493442882686E-3</v>
+      </c>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>190</v>
       </c>
@@ -23499,8 +23970,11 @@
       <c r="AS172" s="10">
         <v>1.1921874438495017E-2</v>
       </c>
+      <c r="AT172" s="10">
+        <v>-8.1040529142806461E-2</v>
+      </c>
     </row>
-    <row r="173" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>190</v>
       </c>
@@ -23636,8 +24110,11 @@
       <c r="AS173" s="10">
         <v>-1.8103668087276481E-2</v>
       </c>
+      <c r="AT173" s="10">
+        <v>8.9071078795073477E-2</v>
+      </c>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>190</v>
       </c>
@@ -23773,8 +24250,11 @@
       <c r="AS174" s="10">
         <v>3.716119499468995E-2</v>
       </c>
+      <c r="AT174" s="10">
+        <v>6.3485562154415032E-3</v>
+      </c>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>190</v>
       </c>
@@ -23910,8 +24390,11 @@
       <c r="AS175" s="10">
         <v>5.8701657458559708E-4</v>
       </c>
+      <c r="AT175" s="10">
+        <v>3.6235635158918811E-3</v>
+      </c>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>190</v>
       </c>
@@ -24047,8 +24530,11 @@
       <c r="AS176" s="10">
         <v>-4.8752618548847382E-3</v>
       </c>
+      <c r="AT176" s="10">
+        <v>1.5970069276993293E-2</v>
+      </c>
     </row>
-    <row r="177" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>190</v>
       </c>
@@ -24184,8 +24670,11 @@
       <c r="AS177" s="10">
         <v>0</v>
       </c>
+      <c r="AT177" s="10">
+        <v>2.0903878278929033E-2</v>
+      </c>
     </row>
-    <row r="178" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>190</v>
       </c>
@@ -24321,8 +24810,11 @@
       <c r="AS178" s="10">
         <v>-4.0869846567784807E-3</v>
       </c>
+      <c r="AT178" s="10">
+        <v>1.7817143443393801E-2</v>
+      </c>
     </row>
-    <row r="179" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>190</v>
       </c>
@@ -24458,8 +24950,11 @@
       <c r="AS179" s="10">
         <v>2.0796649348202578E-3</v>
       </c>
+      <c r="AT179" s="10">
+        <v>9.5090028201605392E-3</v>
+      </c>
     </row>
-    <row r="180" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>190</v>
       </c>
@@ -24595,8 +25090,11 @@
       <c r="AS180" s="10">
         <v>4.4587745765051423E-2</v>
       </c>
+      <c r="AT180" s="10">
+        <v>-4.5214272229563868E-2</v>
+      </c>
     </row>
-    <row r="181" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>190</v>
       </c>
@@ -24732,8 +25230,11 @@
       <c r="AS181" s="10">
         <v>-1.4145010717259154E-2</v>
       </c>
+      <c r="AT181" s="10">
+        <v>-6.962849827051798E-2</v>
+      </c>
     </row>
-    <row r="182" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>190</v>
       </c>
@@ -24869,8 +25370,11 @@
       <c r="AS182" s="10">
         <v>-5.5423132698815269E-3</v>
       </c>
+      <c r="AT182" s="10">
+        <v>3.1922293644873978E-2</v>
+      </c>
     </row>
-    <row r="183" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>190</v>
       </c>
@@ -25006,8 +25510,11 @@
       <c r="AS183" s="10">
         <v>3.4504222732827383E-3</v>
       </c>
+      <c r="AT183" s="10">
+        <v>-1.0935992280476037E-2</v>
+      </c>
     </row>
-    <row r="184" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>190</v>
       </c>
@@ -25143,8 +25650,11 @@
       <c r="AS184" s="10">
         <v>-7.0473546011529109E-3</v>
       </c>
+      <c r="AT184" s="10">
+        <v>6.0791197434406641E-5</v>
+      </c>
     </row>
-    <row r="185" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>190</v>
       </c>
@@ -25280,8 +25790,11 @@
       <c r="AS185" s="10">
         <v>-1.2764586042978254E-2</v>
       </c>
+      <c r="AT185" s="10">
+        <v>-5.3513967262044382E-3</v>
+      </c>
     </row>
-    <row r="186" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>190</v>
       </c>
@@ -25417,8 +25930,11 @@
       <c r="AS186" s="10">
         <v>1.8649623411185701E-2</v>
       </c>
+      <c r="AT186" s="10">
+        <v>9.9459328599096342E-3</v>
+      </c>
     </row>
-    <row r="187" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>190</v>
       </c>
@@ -25554,8 +26070,11 @@
       <c r="AS187" s="10">
         <v>-4.1542385696091699E-5</v>
       </c>
+      <c r="AT187" s="10">
+        <v>2.0414776409591662E-2</v>
+      </c>
     </row>
-    <row r="188" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>190</v>
       </c>
@@ -25691,8 +26210,11 @@
       <c r="AS188" s="10">
         <v>9.4874374210452306E-2</v>
       </c>
+      <c r="AT188" s="10">
+        <v>4.3075542450562665E-2</v>
+      </c>
     </row>
-    <row r="189" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>190</v>
       </c>
@@ -25828,8 +26350,11 @@
       <c r="AS189" s="10">
         <v>2.3393154062267829E-3</v>
       </c>
+      <c r="AT189" s="10">
+        <v>-5.7659966365020132E-3</v>
+      </c>
     </row>
-    <row r="190" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>190</v>
       </c>
@@ -25965,8 +26490,11 @@
       <c r="AS190" s="10">
         <v>-1.5798497347468299E-2</v>
       </c>
+      <c r="AT190" s="10">
+        <v>2.0037758908457493E-2</v>
+      </c>
     </row>
-    <row r="191" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>190</v>
       </c>
@@ -26102,8 +26630,11 @@
       <c r="AS191" s="10">
         <v>1.352844287321231E-2</v>
       </c>
+      <c r="AT191" s="10">
+        <v>7.7193677847693376E-3</v>
+      </c>
     </row>
-    <row r="192" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>190</v>
       </c>
@@ -26239,8 +26770,11 @@
       <c r="AS192" s="10">
         <v>5.5007188274910357E-2</v>
       </c>
+      <c r="AT192" s="10">
+        <v>-5.3044575734849664E-3</v>
+      </c>
     </row>
-    <row r="193" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>190</v>
       </c>
@@ -26376,8 +26910,11 @@
       <c r="AS193" s="10">
         <v>-6.632511046936429E-2</v>
       </c>
+      <c r="AT193" s="10">
+        <v>2.5060788716123605E-2</v>
+      </c>
     </row>
-    <row r="194" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>190</v>
       </c>
@@ -26513,8 +27050,11 @@
       <c r="AS194" s="10">
         <v>-4.3935589232093064E-2</v>
       </c>
+      <c r="AT194" s="10">
+        <v>5.8278997153090373E-2</v>
+      </c>
     </row>
-    <row r="195" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>190</v>
       </c>
@@ -26650,8 +27190,11 @@
       <c r="AS195" s="10">
         <v>-1.7700794231655492E-2</v>
       </c>
+      <c r="AT195" s="10">
+        <v>3.2856853763084892E-2</v>
+      </c>
     </row>
-    <row r="196" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>190</v>
       </c>
@@ -26787,8 +27330,11 @@
       <c r="AS196" s="10">
         <v>2.848630779904493E-3</v>
       </c>
+      <c r="AT196" s="10">
+        <v>-3.7521161609584963E-3</v>
+      </c>
     </row>
-    <row r="197" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>190</v>
       </c>
@@ -26924,8 +27470,11 @@
       <c r="AS197" s="10">
         <v>9.6829844733195003E-3</v>
       </c>
+      <c r="AT197" s="10">
+        <v>4.316049382716125E-3</v>
+      </c>
     </row>
-    <row r="198" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>190</v>
       </c>
@@ -27061,8 +27610,11 @@
       <c r="AS198" s="10">
         <v>1.0261421939897319E-2</v>
       </c>
+      <c r="AT198" s="10">
+        <v>4.9576783555018267E-2</v>
+      </c>
     </row>
-    <row r="199" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>190</v>
       </c>
@@ -27198,8 +27750,11 @@
       <c r="AS199" s="10">
         <v>2.7506701289998325E-2</v>
       </c>
+      <c r="AT199" s="10">
+        <v>5.4396673833956521E-2</v>
+      </c>
     </row>
-    <row r="200" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>190</v>
       </c>
@@ -27335,8 +27890,11 @@
       <c r="AS200" s="10">
         <v>-4.2748409967678036E-2</v>
       </c>
+      <c r="AT200" s="10">
+        <v>1.5139962966997045E-2</v>
+      </c>
     </row>
-    <row r="201" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>190</v>
       </c>
@@ -27472,8 +28030,11 @@
       <c r="AS201" s="10">
         <v>-7.0298184241213146E-3</v>
       </c>
+      <c r="AT201" s="10">
+        <v>-4.4650046973560564E-2</v>
+      </c>
     </row>
-    <row r="202" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>190</v>
       </c>
@@ -27609,8 +28170,11 @@
       <c r="AS202" s="10">
         <v>4.4652875926163738E-2</v>
       </c>
+      <c r="AT202" s="10">
+        <v>1.1372767674117323E-2</v>
+      </c>
     </row>
-    <row r="203" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>190</v>
       </c>
@@ -27746,8 +28310,11 @@
       <c r="AS203" s="10">
         <v>-7.7772807047731263E-3</v>
       </c>
+      <c r="AT203" s="10">
+        <v>9.5550237575001695E-3</v>
+      </c>
     </row>
-    <row r="204" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>190</v>
       </c>
@@ -27883,8 +28450,11 @@
       <c r="AS204" s="10">
         <v>1.2945501038836404E-2</v>
       </c>
+      <c r="AT204" s="10">
+        <v>-2.5218260229304845E-2</v>
+      </c>
     </row>
-    <row r="205" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>190</v>
       </c>
@@ -28020,8 +28590,11 @@
       <c r="AS205" s="10">
         <v>-5.8702145894178104E-2</v>
       </c>
+      <c r="AT205" s="10">
+        <v>-4.2261862668835359E-2</v>
+      </c>
     </row>
-    <row r="206" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>190</v>
       </c>
@@ -28157,8 +28730,11 @@
       <c r="AS206" s="10">
         <v>-5.2971713105143259E-5</v>
       </c>
+      <c r="AT206" s="10">
+        <v>6.0825343010012078E-2</v>
+      </c>
     </row>
-    <row r="207" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207" s="8" t="s">
         <v>190</v>
       </c>
@@ -28294,8 +28870,11 @@
       <c r="AS207" s="10">
         <v>5.3259990292832793E-2</v>
       </c>
+      <c r="AT207" s="10">
+        <v>4.842657163630415E-2</v>
+      </c>
     </row>
-    <row r="208" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>252</v>
       </c>
@@ -28431,8 +29010,11 @@
       <c r="AS208" s="10">
         <v>3.1395367950424191E-3</v>
       </c>
+      <c r="AT208" s="10">
+        <v>9.0450285115029061E-3</v>
+      </c>
     </row>
-    <row r="209" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>252</v>
       </c>
@@ -28568,8 +29150,11 @@
       <c r="AS209" s="10">
         <v>4.9655015481635534E-3</v>
       </c>
+      <c r="AT209" s="10">
+        <v>8.7902312793142201E-3</v>
+      </c>
     </row>
-    <row r="210" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>252</v>
       </c>
@@ -28705,8 +29290,11 @@
       <c r="AS210" s="10">
         <v>0</v>
       </c>
+      <c r="AT210" s="10">
+        <v>5.6165175988964533E-2</v>
+      </c>
     </row>
-    <row r="211" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>252</v>
       </c>
@@ -28842,8 +29430,11 @@
       <c r="AS211" s="10">
         <v>4.6852797726493201E-4</v>
       </c>
+      <c r="AT211" s="10">
+        <v>3.5199914015477285E-2</v>
+      </c>
     </row>
-    <row r="212" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>252</v>
       </c>
@@ -28979,8 +29570,11 @@
       <c r="AS212" s="10">
         <v>0</v>
       </c>
+      <c r="AT212" s="10">
+        <v>9.5565304720122146E-3</v>
+      </c>
     </row>
-    <row r="213" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213" s="8" t="s">
         <v>252</v>
       </c>
@@ -29116,8 +29710,11 @@
       <c r="AS213" s="10">
         <v>0</v>
       </c>
+      <c r="AT213" s="10">
+        <v>1.6126048595304532E-2</v>
+      </c>
     </row>
-    <row r="214" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>261</v>
       </c>
@@ -29253,8 +29850,11 @@
       <c r="AS214" s="10">
         <v>1.2333781216698148E-2</v>
       </c>
+      <c r="AT214" s="10">
+        <v>-3.3282683118832646E-2</v>
+      </c>
     </row>
-    <row r="215" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>261</v>
       </c>
@@ -29390,8 +29990,11 @@
       <c r="AS215" s="10">
         <v>2.3718696262320371E-4</v>
       </c>
+      <c r="AT215" s="10">
+        <v>-6.7078351941507686E-2</v>
+      </c>
     </row>
-    <row r="216" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>261</v>
       </c>
@@ -29527,8 +30130,11 @@
       <c r="AS216" s="10">
         <v>2.9757623873348127E-2</v>
       </c>
+      <c r="AT216" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="217" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>261</v>
       </c>
@@ -29664,8 +30270,11 @@
       <c r="AS217" s="10">
         <v>0</v>
       </c>
+      <c r="AT217" s="10">
+        <v>1.0569502065146397E-2</v>
+      </c>
     </row>
-    <row r="218" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
         <v>261</v>
       </c>
@@ -29801,8 +30410,11 @@
       <c r="AS218" s="10">
         <v>-6.223439101002759E-3</v>
       </c>
+      <c r="AT218" s="10">
+        <v>1.9911261356433396E-2</v>
+      </c>
     </row>
-    <row r="219" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>261</v>
       </c>
@@ -29938,8 +30550,11 @@
       <c r="AS219" s="10">
         <v>-2.376462686952685E-3</v>
       </c>
+      <c r="AT219" s="10">
+        <v>-1.3835305490104699E-2</v>
+      </c>
     </row>
-    <row r="220" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>261</v>
       </c>
@@ -30075,8 +30690,11 @@
       <c r="AS220" s="10">
         <v>1.1777741692059474E-2</v>
       </c>
+      <c r="AT220" s="10">
+        <v>-2.1072109665603023E-2</v>
+      </c>
     </row>
-    <row r="221" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>261</v>
       </c>
@@ -30212,8 +30830,11 @@
       <c r="AS221" s="10">
         <v>4.6329350555749382E-2</v>
       </c>
+      <c r="AT221" s="10">
+        <v>2.7552656786455909E-3</v>
+      </c>
     </row>
-    <row r="222" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>261</v>
       </c>
@@ -30349,8 +30970,11 @@
       <c r="AS222" s="10">
         <v>3.2735938042992574E-2</v>
       </c>
+      <c r="AT222" s="10">
+        <v>5.9387378379417655E-2</v>
+      </c>
     </row>
-    <row r="223" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>261</v>
       </c>
@@ -30486,8 +31110,11 @@
       <c r="AS223" s="10">
         <v>4.5390413247690109E-3</v>
       </c>
+      <c r="AT223" s="10">
+        <v>-8.5833618244148591E-2</v>
+      </c>
     </row>
-    <row r="224" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>261</v>
       </c>
@@ -30623,8 +31250,11 @@
       <c r="AS224" s="10">
         <v>-7.6027700014734689E-3</v>
       </c>
+      <c r="AT224" s="10">
+        <v>-0.1571695816135642</v>
+      </c>
     </row>
-    <row r="225" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>261</v>
       </c>
@@ -30760,8 +31390,11 @@
       <c r="AS225" s="10">
         <v>2.1221348219572E-2</v>
       </c>
+      <c r="AT225" s="10">
+        <v>2.3944210238613817E-2</v>
+      </c>
     </row>
-    <row r="226" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>261</v>
       </c>
@@ -30897,8 +31530,11 @@
       <c r="AS226" s="10">
         <v>8.567110701882541E-3</v>
       </c>
+      <c r="AT226" s="10">
+        <v>-7.6329969337024739E-2</v>
+      </c>
     </row>
-    <row r="227" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>261</v>
       </c>
@@ -31034,8 +31670,11 @@
       <c r="AS227" s="10">
         <v>-1.1035386408692283E-2</v>
       </c>
+      <c r="AT227" s="10">
+        <v>1.6664659221914624E-2</v>
+      </c>
     </row>
-    <row r="228" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>261</v>
       </c>
@@ -31171,8 +31810,11 @@
       <c r="AS228" s="10">
         <v>-1.247529751799914E-2</v>
       </c>
+      <c r="AT228" s="10">
+        <v>-1.667930250189531E-2</v>
+      </c>
     </row>
-    <row r="229" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>261</v>
       </c>
@@ -31308,8 +31950,11 @@
       <c r="AS229" s="10">
         <v>0</v>
       </c>
+      <c r="AT229" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>261</v>
       </c>
@@ -31445,8 +32090,11 @@
       <c r="AS230" s="10">
         <v>1.0801468999788177E-4</v>
       </c>
+      <c r="AT230" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>261</v>
       </c>
@@ -31582,8 +32230,11 @@
       <c r="AS231" s="10">
         <v>4.6095575017063517E-2</v>
       </c>
+      <c r="AT231" s="10">
+        <v>-1.2277380580418717E-2</v>
+      </c>
     </row>
-    <row r="232" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>261</v>
       </c>
@@ -31719,8 +32370,11 @@
       <c r="AS232" s="10">
         <v>-2.3808770986815109E-2</v>
       </c>
+      <c r="AT232" s="10">
+        <v>-0.14164021506769453</v>
+      </c>
     </row>
-    <row r="233" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>261</v>
       </c>
@@ -31856,8 +32510,11 @@
       <c r="AS233" s="10">
         <v>1.1464034823083225E-3</v>
       </c>
+      <c r="AT233" s="10">
+        <v>-9.0513827186003981E-2</v>
+      </c>
     </row>
-    <row r="234" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>261</v>
       </c>
@@ -31993,8 +32650,11 @@
       <c r="AS234" s="10">
         <v>1.0504845359922355E-2</v>
       </c>
+      <c r="AT234" s="10">
+        <v>-6.6038307936205465E-2</v>
+      </c>
     </row>
-    <row r="235" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>261</v>
       </c>
@@ -32130,8 +32790,11 @@
       <c r="AS235" s="10">
         <v>-2.3539165855592792E-2</v>
       </c>
+      <c r="AT235" s="10">
+        <v>-6.72991730655641E-2</v>
+      </c>
     </row>
-    <row r="236" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>261</v>
       </c>
@@ -32267,8 +32930,11 @@
       <c r="AS236" s="10">
         <v>-1.6987882285054878E-2</v>
       </c>
+      <c r="AT236" s="10">
+        <v>-6.9078870130784953E-2</v>
+      </c>
     </row>
-    <row r="237" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>261</v>
       </c>
@@ -32404,8 +33070,11 @@
       <c r="AS237" s="10">
         <v>-1.117162650864878E-2</v>
       </c>
+      <c r="AT237" s="10">
+        <v>-8.2839089475028604E-4</v>
+      </c>
     </row>
-    <row r="238" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>261</v>
       </c>
@@ -32541,8 +33210,11 @@
       <c r="AS238" s="10">
         <v>1.0620204845232184E-2</v>
       </c>
+      <c r="AT238" s="10">
+        <v>9.741959611069495E-3</v>
+      </c>
     </row>
-    <row r="239" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>261</v>
       </c>
@@ -32678,8 +33350,11 @@
       <c r="AS239" s="10">
         <v>5.4571582223241766E-3</v>
       </c>
+      <c r="AT239" s="10">
+        <v>-7.5547138047138085E-2</v>
+      </c>
     </row>
-    <row r="240" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>261</v>
       </c>
@@ -32815,8 +33490,11 @@
       <c r="AS240" s="10">
         <v>5.8673100120627542E-3</v>
       </c>
+      <c r="AT240" s="10">
+        <v>-2.5231932305508353E-3</v>
+      </c>
     </row>
-    <row r="241" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>261</v>
       </c>
@@ -32952,8 +33630,11 @@
       <c r="AS241" s="10">
         <v>-3.4666244210643793E-3</v>
       </c>
+      <c r="AT241" s="10">
+        <v>-3.4693324106717105E-3</v>
+      </c>
     </row>
-    <row r="242" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>261</v>
       </c>
@@ -33089,8 +33770,11 @@
       <c r="AS242" s="10">
         <v>5.03873123095544E-3</v>
       </c>
+      <c r="AT242" s="10">
+        <v>2.5569608693667423E-3</v>
+      </c>
     </row>
-    <row r="243" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>261</v>
       </c>
@@ -33226,8 +33910,11 @@
       <c r="AS243" s="10">
         <v>2.4204132138437862E-2</v>
       </c>
+      <c r="AT243" s="10">
+        <v>-4.6770030569843746E-3</v>
+      </c>
     </row>
-    <row r="244" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
         <v>261</v>
       </c>
@@ -33363,8 +34050,11 @@
       <c r="AS244" s="10">
         <v>0</v>
       </c>
+      <c r="AT244" s="10">
+        <v>-4.7653673358090676E-2</v>
+      </c>
     </row>
-    <row r="245" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>309</v>
       </c>
@@ -33500,8 +34190,11 @@
       <c r="AS245" s="10">
         <v>4.3724689196597666E-2</v>
       </c>
+      <c r="AT245" s="10">
+        <v>5.7099772109217017E-3</v>
+      </c>
     </row>
-    <row r="246" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>309</v>
       </c>
@@ -33637,8 +34330,11 @@
       <c r="AS246" s="10">
         <v>1.3092735139267786E-2</v>
       </c>
+      <c r="AT246" s="10">
+        <v>-2.8985755816446357E-3</v>
+      </c>
     </row>
-    <row r="247" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>309</v>
       </c>
@@ -33774,8 +34470,11 @@
       <c r="AS247" s="10">
         <v>-5.8151498072054331E-3</v>
       </c>
+      <c r="AT247" s="10">
+        <v>3.7920577357437812E-2</v>
+      </c>
     </row>
-    <row r="248" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>309</v>
       </c>
@@ -33911,8 +34610,11 @@
       <c r="AS248" s="10">
         <v>1.447254749339244E-2</v>
       </c>
+      <c r="AT248" s="10">
+        <v>-3.0892979098336437E-2</v>
+      </c>
     </row>
-    <row r="249" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>309</v>
       </c>
@@ -34048,8 +34750,11 @@
       <c r="AS249" s="10">
         <v>5.7493001688142309E-2</v>
       </c>
+      <c r="AT249" s="10">
+        <v>3.2927506946198504E-2</v>
+      </c>
     </row>
-    <row r="250" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>309</v>
       </c>
@@ -34185,8 +34890,11 @@
       <c r="AS250" s="10">
         <v>1.2043452392376697E-2</v>
       </c>
+      <c r="AT250" s="10">
+        <v>-4.6936782317634762E-3</v>
+      </c>
     </row>
-    <row r="251" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>309</v>
       </c>
@@ -34322,8 +35030,11 @@
       <c r="AS251" s="10">
         <v>-8.2158985799009043E-3</v>
       </c>
+      <c r="AT251" s="10">
+        <v>3.9593717671400297E-2</v>
+      </c>
     </row>
-    <row r="252" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>309</v>
       </c>
@@ -34459,8 +35170,11 @@
       <c r="AS252" s="10">
         <v>3.6900332586576212E-2</v>
       </c>
+      <c r="AT252" s="10">
+        <v>1.0859840481221239E-2</v>
+      </c>
     </row>
-    <row r="253" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>309</v>
       </c>
@@ -34596,8 +35310,11 @@
       <c r="AS253" s="10">
         <v>3.1619449250288367E-2</v>
       </c>
+      <c r="AT253" s="10">
+        <v>1.1328995064855629E-2</v>
+      </c>
     </row>
-    <row r="254" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>309</v>
       </c>
@@ -34733,8 +35450,11 @@
       <c r="AS254" s="10">
         <v>4.6138087163110075E-3</v>
       </c>
+      <c r="AT254" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="255" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>309</v>
       </c>
@@ -34870,8 +35590,11 @@
       <c r="AS255" s="10">
         <v>-2.4254062515128516E-2</v>
       </c>
+      <c r="AT255" s="10">
+        <v>-2.367446168094467E-2</v>
+      </c>
     </row>
-    <row r="256" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>309</v>
       </c>
@@ -35007,8 +35730,11 @@
       <c r="AS256" s="10">
         <v>-6.3572790845523031E-4</v>
       </c>
+      <c r="AT256" s="10">
+        <v>2.7584172290445075E-2</v>
+      </c>
     </row>
-    <row r="257" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>309</v>
       </c>
@@ -35144,8 +35870,11 @@
       <c r="AS257" s="10">
         <v>0</v>
       </c>
+      <c r="AT257" s="10">
+        <v>-2.7342175731468243E-2</v>
+      </c>
     </row>
-    <row r="258" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>309</v>
       </c>
@@ -35281,8 +36010,11 @@
       <c r="AS258" s="10">
         <v>-2.2722899911494121E-2</v>
       </c>
+      <c r="AT258" s="10">
+        <v>9.7946567440396759E-3</v>
+      </c>
     </row>
-    <row r="259" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>309</v>
       </c>
@@ -35418,8 +36150,11 @@
       <c r="AS259" s="10">
         <v>3.1486250726925347E-2</v>
       </c>
+      <c r="AT259" s="10">
+        <v>3.4319516036655173E-2</v>
+      </c>
     </row>
-    <row r="260" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>309</v>
       </c>
@@ -35555,8 +36290,11 @@
       <c r="AS260" s="10">
         <v>6.9637646739499903E-3</v>
       </c>
+      <c r="AT260" s="10">
+        <v>-1.1447391696218667E-2</v>
+      </c>
     </row>
-    <row r="261" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>309</v>
       </c>
@@ -35692,8 +36430,11 @@
       <c r="AS261" s="10">
         <v>-2.2352388266716483E-3</v>
       </c>
+      <c r="AT261" s="10">
+        <v>1.6991406644915275E-2</v>
+      </c>
     </row>
-    <row r="262" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>309</v>
       </c>
@@ -35829,8 +36570,11 @@
       <c r="AS262" s="10">
         <v>-7.3329309997988368E-2</v>
       </c>
+      <c r="AT262" s="10">
+        <v>4.0664455289070922E-2</v>
+      </c>
     </row>
-    <row r="263" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>309</v>
       </c>
@@ -35966,8 +36710,11 @@
       <c r="AS263" s="10">
         <v>9.5197595415051905E-2</v>
       </c>
+      <c r="AT263" s="10">
+        <v>5.7801427827637308E-3</v>
+      </c>
     </row>
-    <row r="264" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
         <v>309</v>
       </c>
@@ -36103,8 +36850,11 @@
       <c r="AS264" s="10">
         <v>-3.3758416957716419E-2</v>
       </c>
+      <c r="AT264" s="10">
+        <v>3.5000364587129962E-3</v>
+      </c>
     </row>
-    <row r="265" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>309</v>
       </c>
@@ -36240,8 +36990,11 @@
       <c r="AS265" s="10">
         <v>1.9023230290835524E-3</v>
       </c>
+      <c r="AT265" s="10">
+        <v>1.7599591046846941E-2</v>
+      </c>
     </row>
-    <row r="266" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
         <v>309</v>
       </c>
@@ -36377,8 +37130,11 @@
       <c r="AS266" s="10">
         <v>1.6426593063262551E-2</v>
       </c>
+      <c r="AT266" s="10">
+        <v>-1.4322486964556846E-2</v>
+      </c>
     </row>
-    <row r="267" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
         <v>309</v>
       </c>
@@ -36514,8 +37270,11 @@
       <c r="AS267" s="10">
         <v>0</v>
       </c>
+      <c r="AT267" s="10">
+        <v>-2.3186731578513142E-2</v>
+      </c>
     </row>
-    <row r="268" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>309</v>
       </c>
@@ -36651,8 +37410,11 @@
       <c r="AS268" s="10">
         <v>6.0733722847584382E-2</v>
       </c>
+      <c r="AT268" s="10">
+        <v>-2.2922301395465916E-2</v>
+      </c>
     </row>
-    <row r="269" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>309</v>
       </c>
@@ -36788,8 +37550,11 @@
       <c r="AS269" s="10">
         <v>-2.2834465870347542E-2</v>
       </c>
+      <c r="AT269" s="10">
+        <v>5.6776335404227218E-2</v>
+      </c>
     </row>
-    <row r="270" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>309</v>
       </c>
@@ -36925,8 +37690,11 @@
       <c r="AS270" s="10">
         <v>-9.5280819980690934E-3</v>
       </c>
+      <c r="AT270" s="10">
+        <v>-3.4461708119171153E-4</v>
+      </c>
     </row>
-    <row r="271" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>309</v>
       </c>
@@ -37062,8 +37830,11 @@
       <c r="AS271" s="10">
         <v>3.4252517277344019E-2</v>
       </c>
+      <c r="AT271" s="10">
+        <v>-1.556948305923378E-2</v>
+      </c>
     </row>
-    <row r="272" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>309</v>
       </c>
@@ -37199,8 +37970,11 @@
       <c r="AS272" s="10">
         <v>-1.550857100906633E-3</v>
       </c>
+      <c r="AT272" s="10">
+        <v>5.0550076744215744E-4</v>
+      </c>
     </row>
-    <row r="273" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>309</v>
       </c>
@@ -37336,8 +38110,11 @@
       <c r="AS273" s="10">
         <v>-1.2500214928041986E-2</v>
       </c>
+      <c r="AT273" s="10">
+        <v>3.2212007243348495E-4</v>
+      </c>
     </row>
-    <row r="274" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>309</v>
       </c>
@@ -37473,8 +38250,11 @@
       <c r="AS274" s="10">
         <v>1.9719848536750018E-3</v>
       </c>
+      <c r="AT274" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="275" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>309</v>
       </c>
@@ -37610,8 +38390,11 @@
       <c r="AS275" s="10">
         <v>0</v>
       </c>
+      <c r="AT275" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="276" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>309</v>
       </c>
@@ -37747,8 +38530,11 @@
       <c r="AS276" s="10">
         <v>0</v>
       </c>
+      <c r="AT276" s="10">
+        <v>1.7833133471419904E-2</v>
+      </c>
     </row>
-    <row r="277" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>309</v>
       </c>
@@ -37884,8 +38670,11 @@
       <c r="AS277" s="10">
         <v>5.6972513111366307E-3</v>
       </c>
+      <c r="AT277" s="10">
+        <v>2.1317977594890181E-3</v>
+      </c>
     </row>
-    <row r="278" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>309</v>
       </c>
@@ -38021,8 +38810,11 @@
       <c r="AS278" s="10">
         <v>0</v>
       </c>
+      <c r="AT278" s="10">
+        <v>7.518055879137675E-3</v>
+      </c>
     </row>
-    <row r="279" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>309</v>
       </c>
@@ -38158,8 +38950,11 @@
       <c r="AS279" s="10">
         <v>0</v>
       </c>
+      <c r="AT279" s="10">
+        <v>1.4041039001914557E-2</v>
+      </c>
     </row>
-    <row r="280" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
         <v>309</v>
       </c>
@@ -38295,8 +39090,11 @@
       <c r="AS280" s="10">
         <v>1.4891302409358875E-3</v>
       </c>
+      <c r="AT280" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="281" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>356</v>
       </c>
@@ -38432,8 +39230,11 @@
       <c r="AS281" s="10">
         <v>0.25192323551241125</v>
       </c>
+      <c r="AT281" s="10">
+        <v>-0.2828723874768273</v>
+      </c>
     </row>
-    <row r="282" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>356</v>
       </c>
@@ -38569,8 +39370,11 @@
       <c r="AS282" s="10">
         <v>-3.3674568965524898E-5</v>
       </c>
+      <c r="AT282" s="10">
+        <v>1.4042768142784823E-2</v>
+      </c>
     </row>
-    <row r="283" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>356</v>
       </c>
@@ -38706,8 +39510,11 @@
       <c r="AS283" s="10">
         <v>-6.5027755749405003E-3</v>
       </c>
+      <c r="AT283" s="10">
+        <v>-3.3006066411238821E-2</v>
+      </c>
     </row>
-    <row r="284" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>356</v>
       </c>
@@ -38843,8 +39650,11 @@
       <c r="AS284" s="10">
         <v>3.8331808562741987E-2</v>
       </c>
+      <c r="AT284" s="10">
+        <v>-1.1836847304670384E-3</v>
+      </c>
     </row>
-    <row r="285" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>356</v>
       </c>
@@ -38980,8 +39790,11 @@
       <c r="AS285" s="10">
         <v>3.8028685892535163E-2</v>
       </c>
+      <c r="AT285" s="10">
+        <v>3.7578257346983834E-2</v>
+      </c>
     </row>
-    <row r="286" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>356</v>
       </c>
@@ -39117,8 +39930,11 @@
       <c r="AS286" s="10">
         <v>1.1038996554301628E-2</v>
       </c>
+      <c r="AT286" s="10">
+        <v>1.5985502150334119E-2</v>
+      </c>
     </row>
-    <row r="287" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>356</v>
       </c>
@@ -39254,8 +40070,11 @@
       <c r="AS287" s="10">
         <v>8.1537185615907504E-3</v>
       </c>
+      <c r="AT287" s="10">
+        <v>1.6471327688837967E-2</v>
+      </c>
     </row>
-    <row r="288" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>356</v>
       </c>
@@ -39391,8 +40210,11 @@
       <c r="AS288" s="10">
         <v>1.0148800397190572E-2</v>
       </c>
+      <c r="AT288" s="10">
+        <v>1.5265409968775234E-2</v>
+      </c>
     </row>
-    <row r="289" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>356</v>
       </c>
@@ -39528,8 +40350,11 @@
       <c r="AS289" s="10">
         <v>2.9754016895809254E-2</v>
       </c>
+      <c r="AT289" s="10">
+        <v>3.9618228004209222E-2</v>
+      </c>
     </row>
-    <row r="290" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>356</v>
       </c>
@@ -39665,8 +40490,11 @@
       <c r="AS290" s="10">
         <v>1.1541203606626249E-2</v>
       </c>
+      <c r="AT290" s="10">
+        <v>1.8183928823144013E-2</v>
+      </c>
     </row>
-    <row r="291" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>356</v>
       </c>
@@ -39802,8 +40630,11 @@
       <c r="AS291" s="10">
         <v>0</v>
       </c>
+      <c r="AT291" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="292" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>356</v>
       </c>
@@ -39939,8 +40770,11 @@
       <c r="AS292" s="10">
         <v>2.6617140617271273E-2</v>
       </c>
+      <c r="AT292" s="10">
+        <v>2.5927037026935995E-2</v>
+      </c>
     </row>
-    <row r="293" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>356</v>
       </c>
@@ -40076,8 +40910,11 @@
       <c r="AS293" s="10">
         <v>0</v>
       </c>
+      <c r="AT293" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="294" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>356</v>
       </c>
@@ -40213,8 +41050,11 @@
       <c r="AS294" s="10">
         <v>1.7137650995114662E-2</v>
       </c>
+      <c r="AT294" s="10">
+        <v>2.8300284161107081E-2</v>
+      </c>
     </row>
-    <row r="295" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>356</v>
       </c>
@@ -40350,8 +41190,11 @@
       <c r="AS295" s="10">
         <v>0</v>
       </c>
+      <c r="AT295" s="10">
+        <v>1.6405448952687918E-2</v>
+      </c>
     </row>
-    <row r="296" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>356</v>
       </c>
@@ -40487,8 +41330,11 @@
       <c r="AS296" s="10">
         <v>1.1018043426552104E-2</v>
       </c>
+      <c r="AT296" s="10">
+        <v>7.1840891331198531E-3</v>
+      </c>
     </row>
-    <row r="297" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>356</v>
       </c>
@@ -40624,8 +41470,11 @@
       <c r="AS297" s="10">
         <v>0</v>
       </c>
+      <c r="AT297" s="10">
+        <v>4.3120423018208287E-2</v>
+      </c>
     </row>
-    <row r="298" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>356</v>
       </c>
@@ -40761,8 +41610,11 @@
       <c r="AS298" s="10">
         <v>2.9318954979200118E-2</v>
       </c>
+      <c r="AT298" s="10">
+        <v>2.2582694272851978E-2</v>
+      </c>
     </row>
-    <row r="299" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>356</v>
       </c>
@@ -40898,8 +41750,11 @@
       <c r="AS299" s="10">
         <v>0</v>
       </c>
+      <c r="AT299" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="300" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>356</v>
       </c>
@@ -41035,8 +41890,11 @@
       <c r="AS300" s="10">
         <v>0</v>
       </c>
+      <c r="AT300" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="301" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>356</v>
       </c>
@@ -41172,8 +42030,11 @@
       <c r="AS301" s="10">
         <v>0</v>
       </c>
+      <c r="AT301" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="302" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>356</v>
       </c>
@@ -41309,8 +42170,11 @@
       <c r="AS302" s="10">
         <v>-2.2070916968786047E-2</v>
       </c>
+      <c r="AT302" s="10">
+        <v>-2.1248892344973846E-3</v>
+      </c>
     </row>
-    <row r="303" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A303" s="8" t="s">
         <v>356</v>
       </c>
@@ -41446,8 +42310,11 @@
       <c r="AS303" s="10">
         <v>0</v>
       </c>
+      <c r="AT303" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="304" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>391</v>
       </c>
@@ -41583,8 +42450,11 @@
       <c r="AS304" s="10">
         <v>1.6309646381353904E-3</v>
       </c>
+      <c r="AT304" s="10">
+        <v>2.4197216410442035E-3</v>
+      </c>
     </row>
-    <row r="305" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>391</v>
       </c>
@@ -41720,8 +42590,11 @@
       <c r="AS305" s="10">
         <v>0</v>
       </c>
+      <c r="AT305" s="10">
+        <v>4.2840295344226398E-2</v>
+      </c>
     </row>
-    <row r="306" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>391</v>
       </c>
@@ -41857,8 +42730,11 @@
       <c r="AS306" s="10">
         <v>1.9396740646292265E-2</v>
       </c>
+      <c r="AT306" s="10">
+        <v>1.6533900358820741E-2</v>
+      </c>
     </row>
-    <row r="307" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>391</v>
       </c>
@@ -41994,8 +42870,11 @@
       <c r="AS307" s="10">
         <v>1.5627284690744592E-3</v>
       </c>
+      <c r="AT307" s="10">
+        <v>2.3906200100369812E-3</v>
+      </c>
     </row>
-    <row r="308" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>391</v>
       </c>
@@ -42131,8 +43010,11 @@
       <c r="AS308" s="10">
         <v>3.9074710847140093E-3</v>
       </c>
+      <c r="AT308" s="10">
+        <v>2.8629750722228842E-3</v>
+      </c>
     </row>
-    <row r="309" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>391</v>
       </c>
@@ -42268,8 +43150,11 @@
       <c r="AS309" s="10">
         <v>-0.11407818999977826</v>
       </c>
+      <c r="AT309" s="10">
+        <v>5.1210195332700437E-3</v>
+      </c>
     </row>
-    <row r="310" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>391</v>
       </c>
@@ -42405,8 +43290,11 @@
       <c r="AS310" s="10">
         <v>6.3507768416170673E-2</v>
       </c>
+      <c r="AT310" s="10">
+        <v>1.8170453389152463E-3</v>
+      </c>
     </row>
-    <row r="311" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>391</v>
       </c>
@@ -42542,8 +43430,11 @@
       <c r="AS311" s="10">
         <v>0</v>
       </c>
+      <c r="AT311" s="10">
+        <v>1.7222514892401009E-4</v>
+      </c>
     </row>
-    <row r="312" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>391</v>
       </c>
@@ -42679,8 +43570,11 @@
       <c r="AS312" s="10">
         <v>0</v>
       </c>
+      <c r="AT312" s="10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="313" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>391</v>
       </c>
@@ -42816,8 +43710,11 @@
       <c r="AS313" s="10">
         <v>0</v>
       </c>
+      <c r="AT313" s="10">
+        <v>9.9107166143601599E-3</v>
+      </c>
     </row>
-    <row r="314" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="s">
         <v>391</v>
       </c>
@@ -42951,6 +43848,9 @@
         <v>1.2892187783528852E-2</v>
       </c>
       <c r="AS314" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT314" s="11">
         <v>0</v>
       </c>
     </row>
